--- a/spreadsheet/macrofree/waf.ja.xlsx
+++ b/spreadsheet/macrofree/waf.ja.xlsx
@@ -17632,7 +17632,7 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>AKS Application Routing Add-On を使用しない</t>
+          <t>AKS HTTP ルーティング アドオンを使用せず、代わりにアプリケーション ルーティング アドオンでマネージド NGINX イングレスを使用します。</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
@@ -17708,11 +17708,7 @@
         </is>
       </c>
       <c r="J336" s="13" t="n"/>
-      <c r="K336" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>

--- a/spreadsheet/macrofree/waf.ja.xlsx
+++ b/spreadsheet/macrofree/waf.ja.xlsx
@@ -23757,7 +23757,7 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24440,7 +24440,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24542,7 +24542,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24833,26 +24833,30 @@
     <row r="471">
       <c r="A471" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
-      <c r="F471" s="18" t="n"/>
+      <c r="F471" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="G471" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -24868,7 +24872,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24880,26 +24884,30 @@
     <row r="472">
       <c r="A472" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
-      <c r="F472" s="18" t="n"/>
+      <c r="F472" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="G472" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -24915,7 +24923,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24927,26 +24935,30 @@
     <row r="473">
       <c r="A473" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
-      <c r="F473" s="18" t="n"/>
+      <c r="F473" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="G473" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -24962,7 +24974,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24974,26 +24986,30 @@
     <row r="474">
       <c r="A474" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
-      <c r="F474" s="18" t="n"/>
+      <c r="F474" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -25006,10 +25022,14 @@
         </is>
       </c>
       <c r="J474" s="13" t="n"/>
-      <c r="K474" s="19" t="n"/>
+      <c r="K474" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25019,17 +25039,50 @@
       <c r="Q474" s="20" t="n"/>
     </row>
     <row r="475">
-      <c r="A475" s="18" t="n"/>
-      <c r="B475" s="18" t="n"/>
-      <c r="C475" s="18" t="n"/>
-      <c r="D475" s="18" t="n"/>
+      <c r="A475" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B475" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C475" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D475" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+        </is>
+      </c>
       <c r="E475" s="18" t="n"/>
-      <c r="F475" s="18" t="n"/>
+      <c r="F475" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H475" s="18" t="n"/>
-      <c r="I475" s="13" t="n"/>
+      <c r="I475" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J475" s="13" t="n"/>
       <c r="K475" s="19" t="n"/>
-      <c r="L475" s="19" t="n"/>
+      <c r="L475" s="19" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M475" s="20" t="n"/>
       <c r="N475" s="20" t="n"/>
       <c r="O475" s="20" t="n"/>
@@ -25037,17 +25090,50 @@
       <c r="Q475" s="20" t="n"/>
     </row>
     <row r="476">
-      <c r="A476" s="18" t="n"/>
-      <c r="B476" s="18" t="n"/>
-      <c r="C476" s="18" t="n"/>
-      <c r="D476" s="18" t="n"/>
+      <c r="A476" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B476" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C476" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D476" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+        </is>
+      </c>
       <c r="E476" s="18" t="n"/>
-      <c r="F476" s="18" t="n"/>
+      <c r="F476" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H476" s="18" t="n"/>
-      <c r="I476" s="13" t="n"/>
+      <c r="I476" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J476" s="13" t="n"/>
       <c r="K476" s="19" t="n"/>
-      <c r="L476" s="19" t="n"/>
+      <c r="L476" s="19" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M476" s="20" t="n"/>
       <c r="N476" s="20" t="n"/>
       <c r="O476" s="20" t="n"/>
@@ -25055,17 +25141,50 @@
       <c r="Q476" s="20" t="n"/>
     </row>
     <row r="477">
-      <c r="A477" s="18" t="n"/>
-      <c r="B477" s="18" t="n"/>
-      <c r="C477" s="18" t="n"/>
-      <c r="D477" s="18" t="n"/>
+      <c r="A477" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B477" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C477" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D477" s="18" t="inlineStr">
+        <is>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+        </is>
+      </c>
       <c r="E477" s="18" t="n"/>
-      <c r="F477" s="18" t="n"/>
+      <c r="F477" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H477" s="18" t="n"/>
-      <c r="I477" s="13" t="n"/>
+      <c r="I477" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J477" s="13" t="n"/>
       <c r="K477" s="19" t="n"/>
-      <c r="L477" s="19" t="n"/>
+      <c r="L477" s="19" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M477" s="20" t="n"/>
       <c r="N477" s="20" t="n"/>
       <c r="O477" s="20" t="n"/>
@@ -25073,17 +25192,50 @@
       <c r="Q477" s="20" t="n"/>
     </row>
     <row r="478">
-      <c r="A478" s="18" t="n"/>
-      <c r="B478" s="18" t="n"/>
-      <c r="C478" s="18" t="n"/>
-      <c r="D478" s="18" t="n"/>
+      <c r="A478" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B478" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C478" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D478" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+        </is>
+      </c>
       <c r="E478" s="18" t="n"/>
-      <c r="F478" s="18" t="n"/>
+      <c r="F478" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H478" s="18" t="n"/>
-      <c r="I478" s="13" t="n"/>
+      <c r="I478" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J478" s="13" t="n"/>
       <c r="K478" s="19" t="n"/>
-      <c r="L478" s="19" t="n"/>
+      <c r="L478" s="19" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M478" s="20" t="n"/>
       <c r="N478" s="20" t="n"/>
       <c r="O478" s="20" t="n"/>
@@ -25091,17 +25243,50 @@
       <c r="Q478" s="20" t="n"/>
     </row>
     <row r="479">
-      <c r="A479" s="18" t="n"/>
-      <c r="B479" s="18" t="n"/>
-      <c r="C479" s="18" t="n"/>
-      <c r="D479" s="18" t="n"/>
+      <c r="A479" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B479" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C479" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D479" s="18" t="inlineStr">
+        <is>
+          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+        </is>
+      </c>
       <c r="E479" s="18" t="n"/>
-      <c r="F479" s="18" t="n"/>
+      <c r="F479" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H479" s="18" t="n"/>
-      <c r="I479" s="13" t="n"/>
+      <c r="I479" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J479" s="13" t="n"/>
       <c r="K479" s="19" t="n"/>
-      <c r="L479" s="19" t="n"/>
+      <c r="L479" s="19" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M479" s="20" t="n"/>
       <c r="N479" s="20" t="n"/>
       <c r="O479" s="20" t="n"/>
@@ -25109,17 +25294,50 @@
       <c r="Q479" s="20" t="n"/>
     </row>
     <row r="480">
-      <c r="A480" s="18" t="n"/>
-      <c r="B480" s="18" t="n"/>
-      <c r="C480" s="18" t="n"/>
-      <c r="D480" s="18" t="n"/>
+      <c r="A480" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B480" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C480" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D480" s="18" t="inlineStr">
+        <is>
+          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
+        </is>
+      </c>
       <c r="E480" s="18" t="n"/>
-      <c r="F480" s="18" t="n"/>
+      <c r="F480" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H480" s="18" t="n"/>
-      <c r="I480" s="13" t="n"/>
+      <c r="I480" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J480" s="13" t="n"/>
       <c r="K480" s="19" t="n"/>
-      <c r="L480" s="19" t="n"/>
+      <c r="L480" s="19" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M480" s="20" t="n"/>
       <c r="N480" s="20" t="n"/>
       <c r="O480" s="20" t="n"/>
@@ -25127,17 +25345,50 @@
       <c r="Q480" s="20" t="n"/>
     </row>
     <row r="481">
-      <c r="A481" s="18" t="n"/>
-      <c r="B481" s="18" t="n"/>
-      <c r="C481" s="18" t="n"/>
-      <c r="D481" s="18" t="n"/>
+      <c r="A481" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B481" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C481" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D481" s="18" t="inlineStr">
+        <is>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
+        </is>
+      </c>
       <c r="E481" s="18" t="n"/>
-      <c r="F481" s="18" t="n"/>
+      <c r="F481" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="13" t="n"/>
+      <c r="I481" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
-      <c r="L481" s="19" t="n"/>
+      <c r="L481" s="19" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M481" s="20" t="n"/>
       <c r="N481" s="20" t="n"/>
       <c r="O481" s="20" t="n"/>
@@ -25145,17 +25396,50 @@
       <c r="Q481" s="20" t="n"/>
     </row>
     <row r="482">
-      <c r="A482" s="18" t="n"/>
-      <c r="B482" s="18" t="n"/>
-      <c r="C482" s="18" t="n"/>
-      <c r="D482" s="18" t="n"/>
+      <c r="A482" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B482" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C482" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D482" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+        </is>
+      </c>
       <c r="E482" s="18" t="n"/>
-      <c r="F482" s="18" t="n"/>
+      <c r="F482" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="13" t="n"/>
+      <c r="I482" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
-      <c r="L482" s="19" t="n"/>
+      <c r="L482" s="19" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M482" s="20" t="n"/>
       <c r="N482" s="20" t="n"/>
       <c r="O482" s="20" t="n"/>
@@ -25163,17 +25447,50 @@
       <c r="Q482" s="20" t="n"/>
     </row>
     <row r="483">
-      <c r="A483" s="18" t="n"/>
-      <c r="B483" s="18" t="n"/>
-      <c r="C483" s="18" t="n"/>
-      <c r="D483" s="18" t="n"/>
+      <c r="A483" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B483" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C483" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D483" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+        </is>
+      </c>
       <c r="E483" s="18" t="n"/>
-      <c r="F483" s="18" t="n"/>
+      <c r="F483" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="13" t="n"/>
+      <c r="I483" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
-      <c r="L483" s="19" t="n"/>
+      <c r="L483" s="19" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M483" s="20" t="n"/>
       <c r="N483" s="20" t="n"/>
       <c r="O483" s="20" t="n"/>
@@ -25181,17 +25498,50 @@
       <c r="Q483" s="20" t="n"/>
     </row>
     <row r="484">
-      <c r="A484" s="18" t="n"/>
-      <c r="B484" s="18" t="n"/>
-      <c r="C484" s="18" t="n"/>
-      <c r="D484" s="18" t="n"/>
+      <c r="A484" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B484" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C484" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D484" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+        </is>
+      </c>
       <c r="E484" s="18" t="n"/>
-      <c r="F484" s="18" t="n"/>
+      <c r="F484" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H484" s="18" t="n"/>
-      <c r="I484" s="13" t="n"/>
+      <c r="I484" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J484" s="13" t="n"/>
       <c r="K484" s="19" t="n"/>
-      <c r="L484" s="19" t="n"/>
+      <c r="L484" s="19" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M484" s="20" t="n"/>
       <c r="N484" s="20" t="n"/>
       <c r="O484" s="20" t="n"/>
@@ -25199,17 +25549,50 @@
       <c r="Q484" s="20" t="n"/>
     </row>
     <row r="485">
-      <c r="A485" s="18" t="n"/>
-      <c r="B485" s="18" t="n"/>
-      <c r="C485" s="18" t="n"/>
-      <c r="D485" s="18" t="n"/>
+      <c r="A485" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B485" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C485" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D485" s="18" t="inlineStr">
+        <is>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+        </is>
+      </c>
       <c r="E485" s="18" t="n"/>
-      <c r="F485" s="18" t="n"/>
+      <c r="F485" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H485" s="18" t="n"/>
-      <c r="I485" s="13" t="n"/>
+      <c r="I485" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J485" s="13" t="n"/>
       <c r="K485" s="19" t="n"/>
-      <c r="L485" s="19" t="n"/>
+      <c r="L485" s="19" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M485" s="20" t="n"/>
       <c r="N485" s="20" t="n"/>
       <c r="O485" s="20" t="n"/>
@@ -25217,17 +25600,50 @@
       <c r="Q485" s="20" t="n"/>
     </row>
     <row r="486">
-      <c r="A486" s="18" t="n"/>
-      <c r="B486" s="18" t="n"/>
-      <c r="C486" s="18" t="n"/>
-      <c r="D486" s="18" t="n"/>
+      <c r="A486" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B486" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C486" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D486" s="18" t="inlineStr">
+        <is>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+        </is>
+      </c>
       <c r="E486" s="18" t="n"/>
-      <c r="F486" s="18" t="n"/>
+      <c r="F486" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="13" t="n"/>
+      <c r="I486" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
-      <c r="L486" s="19" t="n"/>
+      <c r="L486" s="19" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M486" s="20" t="n"/>
       <c r="N486" s="20" t="n"/>
       <c r="O486" s="20" t="n"/>
@@ -25235,17 +25651,46 @@
       <c r="Q486" s="20" t="n"/>
     </row>
     <row r="487">
-      <c r="A487" s="18" t="n"/>
-      <c r="B487" s="18" t="n"/>
-      <c r="C487" s="18" t="n"/>
-      <c r="D487" s="18" t="n"/>
+      <c r="A487" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B487" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C487" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D487" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+        </is>
+      </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="n"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H487" s="18" t="n"/>
-      <c r="I487" s="13" t="n"/>
+      <c r="I487" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J487" s="13" t="n"/>
       <c r="K487" s="19" t="n"/>
-      <c r="L487" s="19" t="n"/>
+      <c r="L487" s="19" t="inlineStr">
+        <is>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+        </is>
+      </c>
       <c r="M487" s="20" t="n"/>
       <c r="N487" s="20" t="n"/>
       <c r="O487" s="20" t="n"/>
@@ -25253,17 +25698,46 @@
       <c r="Q487" s="20" t="n"/>
     </row>
     <row r="488">
-      <c r="A488" s="18" t="n"/>
-      <c r="B488" s="18" t="n"/>
-      <c r="C488" s="18" t="n"/>
-      <c r="D488" s="18" t="n"/>
+      <c r="A488" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B488" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C488" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D488" s="18" t="inlineStr">
+        <is>
+          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+        </is>
+      </c>
       <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="n"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="13" t="n"/>
+      <c r="I488" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
-      <c r="L488" s="19" t="n"/>
+      <c r="L488" s="19" t="inlineStr">
+        <is>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+        </is>
+      </c>
       <c r="M488" s="20" t="n"/>
       <c r="N488" s="20" t="n"/>
       <c r="O488" s="20" t="n"/>
@@ -25271,17 +25745,46 @@
       <c r="Q488" s="20" t="n"/>
     </row>
     <row r="489">
-      <c r="A489" s="18" t="n"/>
-      <c r="B489" s="18" t="n"/>
-      <c r="C489" s="18" t="n"/>
-      <c r="D489" s="18" t="n"/>
+      <c r="A489" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B489" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C489" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D489" s="18" t="inlineStr">
+        <is>
+          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+        </is>
+      </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="n"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="13" t="n"/>
+      <c r="I489" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
-      <c r="L489" s="19" t="n"/>
+      <c r="L489" s="19" t="inlineStr">
+        <is>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+        </is>
+      </c>
       <c r="M489" s="20" t="n"/>
       <c r="N489" s="20" t="n"/>
       <c r="O489" s="20" t="n"/>
@@ -25289,17 +25792,46 @@
       <c r="Q489" s="20" t="n"/>
     </row>
     <row r="490">
-      <c r="A490" s="18" t="n"/>
-      <c r="B490" s="18" t="n"/>
-      <c r="C490" s="18" t="n"/>
-      <c r="D490" s="18" t="n"/>
+      <c r="A490" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B490" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C490" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D490" s="18" t="inlineStr">
+        <is>
+          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+        </is>
+      </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="n"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="13" t="n"/>
+      <c r="I490" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
-      <c r="L490" s="19" t="n"/>
+      <c r="L490" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M490" s="20" t="n"/>
       <c r="N490" s="20" t="n"/>
       <c r="O490" s="20" t="n"/>
@@ -38321,7 +38853,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G475" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -38695,6 +39227,22 @@
     <hyperlink ref="I472" r:id="rId367"/>
     <hyperlink ref="I473" r:id="rId368"/>
     <hyperlink ref="I474" r:id="rId369"/>
+    <hyperlink ref="I475" r:id="rId370"/>
+    <hyperlink ref="I476" r:id="rId371"/>
+    <hyperlink ref="I477" r:id="rId372"/>
+    <hyperlink ref="I478" r:id="rId373"/>
+    <hyperlink ref="I479" r:id="rId374"/>
+    <hyperlink ref="I480" r:id="rId375"/>
+    <hyperlink ref="I481" r:id="rId376"/>
+    <hyperlink ref="I482" r:id="rId377"/>
+    <hyperlink ref="I483" r:id="rId378"/>
+    <hyperlink ref="I484" r:id="rId379"/>
+    <hyperlink ref="I485" r:id="rId380"/>
+    <hyperlink ref="I486" r:id="rId381"/>
+    <hyperlink ref="I487" r:id="rId382"/>
+    <hyperlink ref="I488" r:id="rId383"/>
+    <hyperlink ref="I489" r:id="rId384"/>
+    <hyperlink ref="I490" r:id="rId385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.ja.xlsx
+++ b/spreadsheet/macrofree/waf.ja.xlsx
@@ -25653,26 +25653,30 @@
     <row r="487">
       <c r="A487" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B487" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C487" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
-      <c r="F487" s="18" t="n"/>
+      <c r="F487" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="G487" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -25688,7 +25692,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25715,7 +25719,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25735,7 +25739,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25762,7 +25766,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
+          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25782,7 +25786,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25809,7 +25813,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>geo 冗長ストレージ アカウントを使用して Azure Cache for Redis データを保持するか、geo 冗長性を使用できない場合はゾーン冗長を使用します</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -25829,7 +25833,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25839,17 +25843,46 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+        </is>
+      </c>
       <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="n"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -38853,7 +38886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G492" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39243,6 +39276,7 @@
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.ja.xlsx
+++ b/spreadsheet/macrofree/waf.ja.xlsx
@@ -19128,28 +19128,32 @@
     <row r="352">
       <c r="A352" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>グローバルレベルでのエラー処理ポリシーの実装</t>
-        </is>
-      </c>
-      <c r="E352" s="18" t="n"/>
+          <t>Key Vault を使用してシークレットを格納する</t>
+        </is>
+      </c>
+      <c r="E352" s="18" t="inlineStr">
+        <is>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
+        </is>
+      </c>
       <c r="F352" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -19167,7 +19171,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19179,28 +19183,32 @@
     <row r="353">
       <c r="A353" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>すべての API ポリシーに要素が含まれている&lt;base/&gt;ことを確認します。</t>
-        </is>
-      </c>
-      <c r="E353" s="18" t="n"/>
+          <t>マネージド ID を使用して Key Vault に接続する</t>
+        </is>
+      </c>
+      <c r="E353" s="18" t="inlineStr">
+        <is>
+          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+        </is>
+      </c>
       <c r="F353" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -19218,7 +19226,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19230,28 +19238,32 @@
     <row r="354">
       <c r="A354" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B354" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>ポリシーフラグメントを使用して、複数の API で同じポリシー定義を繰り返さないようにする</t>
-        </is>
-      </c>
-      <c r="E354" s="18" t="n"/>
+          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+        </is>
+      </c>
+      <c r="E354" s="18" t="inlineStr">
+        <is>
+          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+        </is>
+      </c>
       <c r="F354" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -19269,7 +19281,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19281,25 +19293,29 @@
     <row r="355">
       <c r="A355" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>API の収益化を計画している場合は、「収益化のサポート」の記事でおすすめの方法をご確認ください</t>
-        </is>
-      </c>
-      <c r="E355" s="18" t="n"/>
+          <t>機密情報を処理するシステムを分離する</t>
+        </is>
+      </c>
+      <c r="E355" s="18" t="inlineStr">
+        <is>
+          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+        </is>
+      </c>
       <c r="F355" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -19320,7 +19336,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19332,28 +19348,32 @@
     <row r="356">
       <c r="A356" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>診断設定を有効にしてログを Azure Monitor にエクスポートする</t>
-        </is>
-      </c>
-      <c r="E356" s="18" t="n"/>
+          <t>機密データをローカルディスクに保存しない</t>
+        </is>
+      </c>
+      <c r="E356" s="18" t="inlineStr">
+        <is>
+          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
+        </is>
+      </c>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19371,7 +19391,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19383,25 +19403,29 @@
     <row r="357">
       <c r="A357" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Application Insights を有効にして、より詳細なテレメトリを実現する</t>
-        </is>
-      </c>
-      <c r="E357" s="18" t="n"/>
+          <t>認証に確立された ID プロバイダーを使用する</t>
+        </is>
+      </c>
+      <c r="E357" s="18" t="inlineStr">
+        <is>
+          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
+        </is>
+      </c>
       <c r="F357" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -19422,7 +19446,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19434,25 +19458,29 @@
     <row r="358">
       <c r="A358" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成する</t>
-        </is>
-      </c>
-      <c r="E358" s="18" t="n"/>
+          <t>信頼できる環境からのデプロイ</t>
+        </is>
+      </c>
+      <c r="E358" s="18" t="inlineStr">
+        <is>
+          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
+        </is>
+      </c>
       <c r="F358" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -19473,7 +19501,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19485,7 +19513,7 @@
     <row r="359">
       <c r="A359" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B359" s="18" t="inlineStr">
@@ -19495,15 +19523,19 @@
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>カスタム SSL 証明書が Azure Key Vault に格納され、安全にアクセスして更新できるようにする</t>
-        </is>
-      </c>
-      <c r="E359" s="18" t="n"/>
+          <t>基本認証の無効化</t>
+        </is>
+      </c>
+      <c r="E359" s="18" t="inlineStr">
+        <is>
+          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+        </is>
+      </c>
       <c r="F359" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -19524,7 +19556,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19536,7 +19568,7 @@
     <row r="360">
       <c r="A360" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B360" s="18" t="inlineStr">
@@ -19546,15 +19578,19 @@
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>Azure AD を使用して API (データ プレーン) への受信要求を保護する</t>
-        </is>
-      </c>
-      <c r="E360" s="18" t="n"/>
+          <t>マネージド ID を使用してリソースに接続する</t>
+        </is>
+      </c>
+      <c r="E360" s="18" t="inlineStr">
+        <is>
+          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+        </is>
+      </c>
       <c r="F360" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -19575,7 +19611,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19587,7 +19623,7 @@
     <row r="361">
       <c r="A361" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B361" s="18" t="inlineStr">
@@ -19597,18 +19633,22 @@
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>Azure AD を使用して開発者ポータルでユーザーを認証する</t>
-        </is>
-      </c>
-      <c r="E361" s="18" t="n"/>
+          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
+        </is>
+      </c>
+      <c r="E361" s="18" t="inlineStr">
+        <is>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
+        </is>
+      </c>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19626,7 +19666,7 @@
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19638,7 +19678,7 @@
     <row r="362">
       <c r="A362" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B362" s="18" t="inlineStr">
@@ -19648,15 +19688,19 @@
       </c>
       <c r="C362" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>適切なグループを作成して、製品の可視性を制御します</t>
-        </is>
-      </c>
-      <c r="E362" s="18" t="n"/>
+          <t>App Service ランタイム ログを Log Analytics に送信する</t>
+        </is>
+      </c>
+      <c r="E362" s="18" t="inlineStr">
+        <is>
+          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
+        </is>
+      </c>
       <c r="F362" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -19677,7 +19721,7 @@
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19689,25 +19733,29 @@
     <row r="363">
       <c r="A363" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>バックエンド機能を使用して、冗長な API バックエンド構成を排除します</t>
-        </is>
-      </c>
-      <c r="E363" s="18" t="n"/>
+          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
+        </is>
+      </c>
+      <c r="E363" s="18" t="inlineStr">
+        <is>
+          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+        </is>
+      </c>
       <c r="F363" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -19728,7 +19776,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19740,25 +19788,29 @@
     <row r="364">
       <c r="A364" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>名前付き値を使用して、ポリシーで使用できる共通の値を格納します</t>
-        </is>
-      </c>
-      <c r="E364" s="18" t="n"/>
+          <t>送信ネットワーク アクセスを制御する必要がある</t>
+        </is>
+      </c>
+      <c r="E364" s="18" t="inlineStr">
+        <is>
+          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
+        </is>
+      </c>
       <c r="F364" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -19779,7 +19831,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19791,28 +19843,32 @@
     <row r="365">
       <c r="A365" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>複数の Azure リージョンにデプロイする</t>
-        </is>
-      </c>
-      <c r="E365" s="18" t="n"/>
+          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
+        </is>
+      </c>
+      <c r="E365" s="18" t="inlineStr">
+        <is>
+          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
+        </is>
+      </c>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19830,7 +19886,7 @@
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19842,28 +19898,32 @@
     <row r="366">
       <c r="A366" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>リージョンごとに 2 つの可用性ゾーンに分散した少なくとも 2 つのスケール ユニットをデプロイして、最適な可用性とパフォーマンスを実現します</t>
-        </is>
-      </c>
-      <c r="E366" s="18" t="n"/>
+          <t>受信ネットワーク アクセスを制御する必要がある</t>
+        </is>
+      </c>
+      <c r="E366" s="18" t="inlineStr">
+        <is>
+          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
+        </is>
+      </c>
       <c r="F366" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -19881,7 +19941,7 @@
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19893,25 +19953,29 @@
     <row r="367">
       <c r="A367" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>自動バックアップ・ルーチンがあることを確認する</t>
-        </is>
-      </c>
-      <c r="E367" s="18" t="n"/>
+          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
+        </is>
+      </c>
+      <c r="E367" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
+        </is>
+      </c>
       <c r="F367" s="18" t="inlineStr">
         <is>
           <t>高い</t>
@@ -19932,7 +19996,7 @@
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19944,28 +20008,32 @@
     <row r="368">
       <c r="A368" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
-        </is>
-      </c>
-      <c r="E368" s="18" t="n"/>
+          <t>WAFをバイパスすることは避けてください</t>
+        </is>
+      </c>
+      <c r="E368" s="18" t="inlineStr">
+        <is>
+          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
+        </is>
+      </c>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -19983,7 +20051,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19995,25 +20063,29 @@
     <row r="369">
       <c r="A369" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B369" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C369" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
-        </is>
-      </c>
-      <c r="E369" s="18" t="n"/>
+          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+        </is>
+      </c>
+      <c r="E369" s="18" t="inlineStr">
+        <is>
+          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+        </is>
+      </c>
       <c r="F369" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -20030,15 +20102,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
-      <c r="K369" s="19" t="n"/>
+      <c r="J369" s="13" t="n"/>
+      <c r="K369" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -20050,28 +20122,32 @@
     <row r="370">
       <c r="A370" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
-        </is>
-      </c>
-      <c r="E370" s="18" t="n"/>
+          <t>HTTPS のみを使用</t>
+        </is>
+      </c>
+      <c r="E370" s="18" t="inlineStr">
+        <is>
+          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
+        </is>
+      </c>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -20086,10 +20162,14 @@
         </is>
       </c>
       <c r="J370" s="13" t="n"/>
-      <c r="K370" s="19" t="n"/>
+      <c r="K370" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -20101,28 +20181,32 @@
     <row r="371">
       <c r="A371" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>セルフホステッド ゲートウェイをデプロイする場所は、Azure のバックエンド API に近いリージョンがありません。</t>
-        </is>
-      </c>
-      <c r="E371" s="18" t="n"/>
+          <t>ワイルドカードは CORS に使用しないでください</t>
+        </is>
+      </c>
+      <c r="E371" s="18" t="inlineStr">
+        <is>
+          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
+        </is>
+      </c>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -20140,7 +20224,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -20152,28 +20236,32 @@
     <row r="372">
       <c r="A372" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
-        </is>
-      </c>
-      <c r="E372" s="18" t="n"/>
+          <t>リモートデバッグをオフにする</t>
+        </is>
+      </c>
+      <c r="E372" s="18" t="inlineStr">
+        <is>
+          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
+        </is>
+      </c>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -20188,10 +20276,14 @@
         </is>
       </c>
       <c r="J372" s="13" t="n"/>
-      <c r="K372" s="19" t="n"/>
+      <c r="K372" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -20203,7 +20295,7 @@
     <row r="373">
       <c r="A373" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B373" s="18" t="inlineStr">
@@ -20213,15 +20305,19 @@
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
-        </is>
-      </c>
-      <c r="E373" s="18" t="n"/>
+          <t>Defender for Cloud を有効にする - Defender for App Service</t>
+        </is>
+      </c>
+      <c r="E373" s="18" t="inlineStr">
+        <is>
+          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+        </is>
+      </c>
       <c r="F373" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -20242,7 +20338,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -20254,7 +20350,7 @@
     <row r="374">
       <c r="A374" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B374" s="18" t="inlineStr">
@@ -20264,15 +20360,19 @@
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
-        </is>
-      </c>
-      <c r="E374" s="18" t="n"/>
+          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
+        </is>
+      </c>
+      <c r="E374" s="18" t="inlineStr">
+        <is>
+          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+        </is>
+      </c>
       <c r="F374" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -20293,7 +20393,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -20305,7 +20405,7 @@
     <row r="375">
       <c r="A375" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B375" s="18" t="inlineStr">
@@ -20315,15 +20415,19 @@
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
-        </is>
-      </c>
-      <c r="E375" s="18" t="n"/>
+          <t>Virtual Network 経由でコンテナーをプルする</t>
+        </is>
+      </c>
+      <c r="E375" s="18" t="inlineStr">
+        <is>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
+        </is>
+      </c>
       <c r="F375" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -20344,7 +20448,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -20356,7 +20460,7 @@
     <row r="376">
       <c r="A376" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B376" s="18" t="inlineStr">
@@ -20366,18 +20470,22 @@
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>パブリックネットワークアクセスの無効化</t>
-        </is>
-      </c>
-      <c r="E376" s="18" t="n"/>
+          <t>ペネトレーションテストの実施</t>
+        </is>
+      </c>
+      <c r="E376" s="18" t="inlineStr">
+        <is>
+          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
+        </is>
+      </c>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -20395,7 +20503,7 @@
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20407,25 +20515,29 @@
     <row r="377">
       <c r="A377" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
-        </is>
-      </c>
-      <c r="E377" s="18" t="n"/>
+          <t>検証済みコードのデプロイ</t>
+        </is>
+      </c>
+      <c r="E377" s="18" t="inlineStr">
+        <is>
+          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
+        </is>
+      </c>
       <c r="F377" s="18" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -20446,7 +20558,7 @@
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20458,28 +20570,32 @@
     <row r="378">
       <c r="A378" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
-        </is>
-      </c>
-      <c r="E378" s="18" t="n"/>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
+        </is>
+      </c>
+      <c r="E378" s="18" t="inlineStr">
+        <is>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
+        </is>
+      </c>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -20497,7 +20613,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20524,7 +20640,7 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
+          <t>グローバルレベルでのエラー処理ポリシーの実装</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -20548,7 +20664,7 @@
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20575,7 +20691,7 @@
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>DevOpsとCI/CDをワークフローに実装する</t>
+          <t>すべての API ポリシーに要素が含まれている&lt;base/&gt;ことを確認します。</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
@@ -20599,7 +20715,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20616,7 +20732,7 @@
       </c>
       <c r="B381" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C381" s="18" t="inlineStr">
@@ -20626,7 +20742,7 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用した API の保護</t>
+          <t>ポリシーフラグメントを使用して、複数の API で同じポリシー定義を繰り返さないようにする</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
@@ -20650,7 +20766,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20667,7 +20783,7 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
@@ -20677,7 +20793,7 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
+          <t>API の収益化を計画している場合は、「収益化のサポート」の記事でおすすめの方法をご確認ください</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20701,7 +20817,7 @@
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20718,7 +20834,7 @@
       </c>
       <c r="B383" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C383" s="18" t="inlineStr">
@@ -20728,13 +20844,13 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認してください</t>
+          <t>診断設定を有効にしてログを Azure Monitor にエクスポートする</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20752,7 +20868,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20769,7 +20885,7 @@
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
@@ -20779,7 +20895,7 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
+          <t>Application Insights を有効にして、より詳細なテレメトリを実現する</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20803,7 +20919,7 @@
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20820,7 +20936,7 @@
       </c>
       <c r="B385" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C385" s="18" t="inlineStr">
@@ -20830,7 +20946,7 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
+          <t>最も重要なメトリックに関するアラートを構成する</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20854,7 +20970,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20881,7 +20997,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>シークレット (名前付きの値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにします</t>
+          <t>カスタム SSL 証明書が Azure Key Vault に格納され、安全にアクセスして更新できるようにする</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20905,7 +21021,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20932,13 +21048,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
+          <t>Azure AD を使用して API (データ プレーン) への受信要求を保護する</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20956,7 +21072,7 @@
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20983,13 +21099,13 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォール (WAF) を使用して Application Gateway を APIM の前にデプロイする</t>
+          <t>Azure AD を使用して開発者ポータルでユーザーを認証する</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
       <c r="F388" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -21007,7 +21123,7 @@
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -21019,7 +21135,7 @@
     <row r="389">
       <c r="A389" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B389" s="18" t="inlineStr">
@@ -21029,18 +21145,18 @@
       </c>
       <c r="C389" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
+          <t>適切なグループを作成して、製品の可視性を制御します</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -21049,12 +21165,16 @@
         </is>
       </c>
       <c r="H389" s="18" t="n"/>
-      <c r="I389" s="13" t="n"/>
+      <c r="I389" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J389" s="13" t="n"/>
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -21066,22 +21186,22 @@
     <row r="390">
       <c r="A390" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B390" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
+          <t>バックエンド機能を使用して、冗長な API バックエンド構成を排除します</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -21096,12 +21216,16 @@
         </is>
       </c>
       <c r="H390" s="18" t="n"/>
-      <c r="I390" s="13" t="n"/>
+      <c r="I390" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J390" s="13" t="n"/>
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -21113,28 +21237,28 @@
     <row r="391">
       <c r="A391" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B391" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
+          <t>名前付き値を使用して、ポリシーで使用できる共通の値を格納します</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -21143,12 +21267,16 @@
         </is>
       </c>
       <c r="H391" s="18" t="n"/>
-      <c r="I391" s="13" t="n"/>
+      <c r="I391" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J391" s="13" t="n"/>
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -21160,22 +21288,22 @@
     <row r="392">
       <c r="A392" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
+          <t>複数の Azure リージョンにデプロイする</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
@@ -21190,12 +21318,16 @@
         </is>
       </c>
       <c r="H392" s="18" t="n"/>
-      <c r="I392" s="13" t="n"/>
+      <c r="I392" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J392" s="13" t="n"/>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -21207,22 +21339,22 @@
     <row r="393">
       <c r="A393" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
+          <t>リージョンごとに 2 つの可用性ゾーンに分散した少なくとも 2 つのスケール ユニットをデプロイして、最適な可用性とパフォーマンスを実現します</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
@@ -21237,12 +21369,16 @@
         </is>
       </c>
       <c r="H393" s="18" t="n"/>
-      <c r="I393" s="13" t="n"/>
+      <c r="I393" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J393" s="13" t="n"/>
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -21254,22 +21390,22 @@
     <row r="394">
       <c r="A394" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
+          <t>自動バックアップ・ルーチンがあることを確認する</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
@@ -21284,12 +21420,16 @@
         </is>
       </c>
       <c r="H394" s="18" t="n"/>
-      <c r="I394" s="13" t="n"/>
+      <c r="I394" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J394" s="13" t="n"/>
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -21301,28 +21441,28 @@
     <row r="395">
       <c r="A395" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
+          <t>高パフォーマンス レベルでログを記録する必要がある場合は、Event Hubs ポリシーを検討してください</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -21331,12 +21471,16 @@
         </is>
       </c>
       <c r="H395" s="18" t="n"/>
-      <c r="I395" s="13" t="n"/>
+      <c r="I395" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J395" s="13" t="n"/>
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -21348,22 +21492,22 @@
     <row r="396">
       <c r="A396" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B396" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
+          <t>調整ポリシーを適用して、毎秒の要求数を制御する</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -21378,12 +21522,20 @@
         </is>
       </c>
       <c r="H396" s="18" t="n"/>
-      <c r="I396" s="13" t="n"/>
-      <c r="J396" s="13" t="n"/>
+      <c r="I396" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J396" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21395,28 +21547,28 @@
     <row r="397">
       <c r="A397" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
+          <t>負荷が増加したときにインスタンスの数をスケールアウトするように自動スケーリングを構成する</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -21425,12 +21577,16 @@
         </is>
       </c>
       <c r="H397" s="18" t="n"/>
-      <c r="I397" s="13" t="n"/>
+      <c r="I397" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J397" s="13" t="n"/>
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21442,28 +21598,28 @@
     <row r="398">
       <c r="A398" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B398" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
+          <t>セルフホステッド ゲートウェイをデプロイする場所は、Azure のバックエンド API に近いリージョンがありません。</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21472,12 +21628,16 @@
         </is>
       </c>
       <c r="H398" s="18" t="n"/>
-      <c r="I398" s="13" t="n"/>
+      <c r="I398" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J398" s="13" t="n"/>
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21489,7 +21649,7 @@
     <row r="399">
       <c r="A399" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B399" s="18" t="inlineStr">
@@ -21499,18 +21659,18 @@
       </c>
       <c r="C399" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
+          <t>複数リージョンのデプロイに APIM の前で Azure Front Door を使用するUse Azure Front Door in front of APIM for multi-region deployment</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21528,7 +21688,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21540,28 +21700,28 @@
     <row r="400">
       <c r="A400" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
+          <t>仮想ネットワーク (VNet) 内にサービスをデプロイするDeploy the service within a Virtual Network (VNet)</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21570,12 +21730,16 @@
         </is>
       </c>
       <c r="H400" s="18" t="n"/>
-      <c r="I400" s="13" t="n"/>
+      <c r="I400" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J400" s="13" t="n"/>
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21587,22 +21751,22 @@
     <row r="401">
       <c r="A401" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>ネットワーク セキュリティ グループ (NSG) をサブネットにデプロイして、APIM との間のトラフィックを制限または監視します。</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
@@ -21617,12 +21781,16 @@
         </is>
       </c>
       <c r="H401" s="18" t="n"/>
-      <c r="I401" s="13" t="n"/>
+      <c r="I401" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J401" s="13" t="n"/>
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21634,22 +21802,22 @@
     <row r="402">
       <c r="A402" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>プライベート エンドポイントをデプロイして、APIM が VNet にデプロイされていない場合に受信トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21664,12 +21832,16 @@
         </is>
       </c>
       <c r="H402" s="18" t="n"/>
-      <c r="I402" s="13" t="n"/>
+      <c r="I402" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J402" s="13" t="n"/>
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21681,22 +21853,22 @@
     <row r="403">
       <c r="A403" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B403" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
+          <t>パブリックネットワークアクセスの無効化</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21711,12 +21883,16 @@
         </is>
       </c>
       <c r="H403" s="18" t="n"/>
-      <c r="I403" s="13" t="n"/>
+      <c r="I403" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J403" s="13" t="n"/>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21728,28 +21904,28 @@
     <row r="404">
       <c r="A404" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
+          <t>PowerShell 自動化スクリプトで管理を簡素化</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
       <c r="F404" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -21758,12 +21934,16 @@
         </is>
       </c>
       <c r="H404" s="18" t="n"/>
-      <c r="I404" s="13" t="n"/>
+      <c r="I404" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J404" s="13" t="n"/>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21775,28 +21955,28 @@
     <row r="405">
       <c r="A405" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
+          <t>Cloud Adaption Framework APIM Landing Zone Accelerator から DevOps のベスト プラクティスを確認する</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21805,12 +21985,16 @@
         </is>
       </c>
       <c r="H405" s="18" t="n"/>
-      <c r="I405" s="13" t="n"/>
+      <c r="I405" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J405" s="13" t="n"/>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21822,22 +22006,22 @@
     <row r="406">
       <c r="A406" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B406" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
+          <t>Visual Studio Code APIM 拡張機能の使用を促進して API 開発を迅速化する</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21852,12 +22036,16 @@
         </is>
       </c>
       <c r="H406" s="18" t="n"/>
-      <c r="I406" s="13" t="n"/>
+      <c r="I406" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J406" s="13" t="n"/>
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21869,28 +22057,28 @@
     <row r="407">
       <c r="A407" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
+          <t>DevOpsとCI/CDをワークフローに実装する</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -21899,12 +22087,16 @@
         </is>
       </c>
       <c r="H407" s="18" t="n"/>
-      <c r="I407" s="13" t="n"/>
+      <c r="I407" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J407" s="13" t="n"/>
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21916,7 +22108,7 @@
     <row r="408">
       <c r="A408" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B408" s="18" t="inlineStr">
@@ -21926,12 +22118,12 @@
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
+          <t>クライアント証明書認証を使用した API の保護</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21946,12 +22138,16 @@
         </is>
       </c>
       <c r="H408" s="18" t="n"/>
-      <c r="I408" s="13" t="n"/>
+      <c r="I408" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J408" s="13" t="n"/>
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21963,7 +22159,7 @@
     <row r="409">
       <c r="A409" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B409" s="18" t="inlineStr">
@@ -21973,12 +22169,12 @@
       </c>
       <c r="C409" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
+          <t>クライアント証明書認証を使用したバックエンド サービスのセキュリティ保護</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21993,12 +22189,16 @@
         </is>
       </c>
       <c r="H409" s="18" t="n"/>
-      <c r="I409" s="13" t="n"/>
+      <c r="I409" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J409" s="13" t="n"/>
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -22010,7 +22210,7 @@
     <row r="410">
       <c r="A410" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B410" s="18" t="inlineStr">
@@ -22020,18 +22220,18 @@
       </c>
       <c r="C410" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
+          <t>「OWASP API Security Top 10 の脅威を軽減するための推奨事項」の記事を確認し、API に適用できるものを確認してください</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -22040,12 +22240,16 @@
         </is>
       </c>
       <c r="H410" s="18" t="n"/>
-      <c r="I410" s="13" t="n"/>
+      <c r="I410" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J410" s="13" t="n"/>
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -22057,7 +22261,7 @@
     <row r="411">
       <c r="A411" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B411" s="18" t="inlineStr">
@@ -22067,12 +22271,12 @@
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
+          <t>承認機能を使用して、バックエンド API の OAuth 2.0 トークンの管理を簡素化します</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -22087,12 +22291,16 @@
         </is>
       </c>
       <c r="H411" s="18" t="n"/>
-      <c r="I411" s="13" t="n"/>
+      <c r="I411" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J411" s="13" t="n"/>
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -22104,7 +22312,7 @@
     <row r="412">
       <c r="A412" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B412" s="18" t="inlineStr">
@@ -22114,12 +22322,12 @@
       </c>
       <c r="C412" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
+          <t>転送中の情報を暗号化する場合は、最新のTLSバージョンを使用します。可能であれば、古くて不要なプロトコルと暗号を無効にします。</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -22134,12 +22342,16 @@
         </is>
       </c>
       <c r="H412" s="18" t="n"/>
-      <c r="I412" s="13" t="n"/>
+      <c r="I412" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J412" s="13" t="n"/>
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -22151,7 +22363,7 @@
     <row r="413">
       <c r="A413" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B413" s="18" t="inlineStr">
@@ -22161,12 +22373,12 @@
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
+          <t>シークレット (名前付きの値) が Azure Key Vault に格納され、安全にアクセスして更新できるようにします</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -22181,12 +22393,16 @@
         </is>
       </c>
       <c r="H413" s="18" t="n"/>
-      <c r="I413" s="13" t="n"/>
+      <c r="I413" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J413" s="13" t="n"/>
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -22198,7 +22414,7 @@
     <row r="414">
       <c r="A414" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B414" s="18" t="inlineStr">
@@ -22208,12 +22424,12 @@
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
+          <t>可能な限りマネージド ID を使用して、他の Azure リソースに対する認証を行う</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -22228,12 +22444,16 @@
         </is>
       </c>
       <c r="H414" s="18" t="n"/>
-      <c r="I414" s="13" t="n"/>
+      <c r="I414" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J414" s="13" t="n"/>
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -22245,7 +22465,7 @@
     <row r="415">
       <c r="A415" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B415" s="18" t="inlineStr">
@@ -22255,18 +22475,18 @@
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
+          <t>Web アプリケーション ファイアウォール (WAF) を使用して Application Gateway を APIM の前にデプロイする</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -22275,12 +22495,16 @@
         </is>
       </c>
       <c r="H415" s="18" t="n"/>
-      <c r="I415" s="13" t="n"/>
+      <c r="I415" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J415" s="13" t="n"/>
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22307,13 +22531,13 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
+          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -22327,7 +22551,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22354,7 +22578,7 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
+          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
@@ -22374,7 +22598,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22401,13 +22625,13 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
+          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22421,7 +22645,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22448,13 +22672,13 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
+          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22468,7 +22692,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22495,13 +22719,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
+          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22515,7 +22739,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22542,13 +22766,13 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
+          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22562,7 +22786,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22579,7 +22803,7 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
@@ -22589,13 +22813,13 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
+          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22609,7 +22833,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22626,7 +22850,7 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
@@ -22636,13 +22860,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
+          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22656,7 +22880,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22673,7 +22897,7 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
@@ -22683,7 +22907,7 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
+          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22703,7 +22927,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22720,7 +22944,7 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
@@ -22730,13 +22954,13 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
+          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
       <c r="F425" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -22750,7 +22974,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22767,7 +22991,7 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
@@ -22777,13 +23001,13 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
+          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -22792,12 +23016,16 @@
         </is>
       </c>
       <c r="H426" s="18" t="n"/>
-      <c r="I426" s="13" t="n"/>
+      <c r="I426" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J426" s="13" t="n"/>
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22814,7 +23042,7 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
@@ -22824,13 +23052,13 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
+          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -22844,7 +23072,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22861,7 +23089,7 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
@@ -22871,13 +23099,13 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
+          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22891,7 +23119,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22908,7 +23136,7 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
@@ -22918,7 +23146,7 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
+          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -22938,7 +23166,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22955,7 +23183,7 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
@@ -22965,7 +23193,7 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
+          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -22985,7 +23213,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -23012,13 +23240,13 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
+          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -23032,7 +23260,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23059,13 +23287,13 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
+          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -23079,7 +23307,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23096,7 +23324,7 @@
       </c>
       <c r="B433" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C433" s="18" t="inlineStr">
@@ -23106,13 +23334,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -23126,7 +23354,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23143,7 +23371,7 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
@@ -23153,13 +23381,13 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
+          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23173,7 +23401,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23190,7 +23418,7 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
@@ -23200,7 +23428,7 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
+          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -23220,7 +23448,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23247,7 +23475,7 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
+          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23267,7 +23495,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23294,13 +23522,13 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
+          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
       <c r="F437" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -23314,7 +23542,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23341,13 +23569,13 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
+          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23361,7 +23589,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23388,7 +23616,7 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
+          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23408,7 +23636,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23435,13 +23663,13 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
+          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23455,7 +23683,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23472,7 +23700,7 @@
       </c>
       <c r="B441" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C441" s="18" t="inlineStr">
@@ -23482,13 +23710,13 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
+          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23502,7 +23730,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23519,7 +23747,7 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
@@ -23529,13 +23757,13 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
+          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23549,7 +23777,7 @@
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23566,7 +23794,7 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
@@ -23576,13 +23804,13 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
+          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23596,7 +23824,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23613,7 +23841,7 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
@@ -23623,13 +23851,13 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
+          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
       <c r="F444" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -23643,7 +23871,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23660,7 +23888,7 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
@@ -23670,7 +23898,7 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
+          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23690,7 +23918,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23707,7 +23935,7 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
@@ -23717,7 +23945,7 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
+          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -23737,7 +23965,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23754,7 +23982,7 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
@@ -23764,13 +23992,13 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
+          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23784,7 +24012,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23801,7 +24029,7 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
@@ -23811,7 +24039,7 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
+          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23831,7 +24059,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23848,7 +24076,7 @@
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
@@ -23858,13 +24086,13 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
+          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23878,7 +24106,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23895,7 +24123,7 @@
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
@@ -23905,13 +24133,13 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
+          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -23925,7 +24153,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23942,7 +24170,7 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
@@ -23952,13 +24180,13 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
+          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23972,7 +24200,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23999,7 +24227,7 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
+          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -24019,7 +24247,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -24046,7 +24274,7 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
+          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -24066,7 +24294,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -24083,7 +24311,7 @@
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
@@ -24093,7 +24321,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
+          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -24113,7 +24341,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24130,7 +24358,7 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
@@ -24140,13 +24368,13 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
+          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
       <c r="F455" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -24160,7 +24388,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24177,7 +24405,7 @@
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
@@ -24187,7 +24415,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -24207,7 +24435,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24224,7 +24452,7 @@
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
@@ -24234,13 +24462,13 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
+          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24254,7 +24482,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24271,7 +24499,7 @@
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
@@ -24281,13 +24509,13 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
+          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24301,7 +24529,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24318,7 +24546,7 @@
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
@@ -24328,7 +24556,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
+          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24348,7 +24576,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24365,7 +24593,7 @@
       </c>
       <c r="B460" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C460" s="18" t="inlineStr">
@@ -24375,7 +24603,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
+          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24395,7 +24623,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24412,7 +24640,7 @@
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
@@ -24422,7 +24650,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
+          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24442,7 +24670,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24459,7 +24687,7 @@
       </c>
       <c r="B462" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C462" s="18" t="inlineStr">
@@ -24469,7 +24697,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24489,7 +24717,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24506,7 +24734,7 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
@@ -24516,7 +24744,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
+          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24536,7 +24764,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24553,7 +24781,7 @@
       </c>
       <c r="B464" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C464" s="18" t="inlineStr">
@@ -24563,7 +24791,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
+          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24583,7 +24811,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24600,7 +24828,7 @@
       </c>
       <c r="B465" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C465" s="18" t="inlineStr">
@@ -24610,13 +24838,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
+          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24630,7 +24858,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24647,7 +24875,7 @@
       </c>
       <c r="B466" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C466" s="18" t="inlineStr">
@@ -24657,13 +24885,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
+          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24677,7 +24905,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24694,7 +24922,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24704,13 +24932,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
+          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24724,7 +24952,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24751,13 +24979,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24771,7 +24999,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24798,13 +25026,13 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24818,7 +25046,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24845,13 +25073,13 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
+          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24865,7 +25093,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24892,13 +25120,13 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
+          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24912,7 +25140,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24939,13 +25167,13 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
+          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24959,7 +25187,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24986,7 +25214,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -25006,7 +25234,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -25033,13 +25261,13 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -25053,7 +25281,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25070,7 +25298,7 @@
       </c>
       <c r="B475" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C475" s="18" t="inlineStr">
@@ -25080,7 +25308,7 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
+          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -25100,7 +25328,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25117,7 +25345,7 @@
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
@@ -25127,7 +25355,7 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
+          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
@@ -25147,7 +25375,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25164,7 +25392,7 @@
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
@@ -25174,7 +25402,7 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
+          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
@@ -25194,7 +25422,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25211,7 +25439,7 @@
       </c>
       <c r="B478" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C478" s="18" t="inlineStr">
@@ -25221,7 +25449,7 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
@@ -25241,7 +25469,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25258,7 +25486,7 @@
       </c>
       <c r="B479" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C479" s="18" t="inlineStr">
@@ -25268,7 +25496,7 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25288,7 +25516,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25315,7 +25543,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
+          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25335,7 +25563,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25352,7 +25580,7 @@
       </c>
       <c r="B481" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C481" s="18" t="inlineStr">
@@ -25362,13 +25590,13 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
+          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
       <c r="F481" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -25377,20 +25605,12 @@
         </is>
       </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J481" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I481" s="13" t="n"/>
+      <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25417,13 +25637,13 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
+          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25432,20 +25652,12 @@
         </is>
       </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J482" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I482" s="13" t="n"/>
+      <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25462,7 +25674,7 @@
       </c>
       <c r="B483" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C483" s="18" t="inlineStr">
@@ -25472,7 +25684,7 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
+          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
@@ -25492,7 +25704,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25509,7 +25721,7 @@
       </c>
       <c r="B484" s="18" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C484" s="18" t="inlineStr">
@@ -25519,7 +25731,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
+          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25539,7 +25751,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25566,13 +25778,13 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
+          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
       <c r="F485" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -25586,7 +25798,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25613,7 +25825,7 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
+          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
@@ -25628,16 +25840,12 @@
         </is>
       </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I486" s="13" t="n"/>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25664,13 +25872,13 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
+          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -25679,16 +25887,12 @@
         </is>
       </c>
       <c r="H487" s="18" t="n"/>
-      <c r="I487" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I487" s="13" t="n"/>
       <c r="J487" s="13" t="n"/>
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25715,7 +25919,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
+          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25730,16 +25934,12 @@
         </is>
       </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I488" s="13" t="n"/>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25766,13 +25966,13 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
+          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -25781,16 +25981,12 @@
         </is>
       </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I489" s="13" t="n"/>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25817,13 +26013,13 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
+          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -25832,16 +26028,12 @@
         </is>
       </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I490" s="13" t="n"/>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25868,13 +26060,13 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
+          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -25883,16 +26075,12 @@
         </is>
       </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I491" s="13" t="n"/>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25919,13 +26107,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
+          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -25934,16 +26122,12 @@
         </is>
       </c>
       <c r="H492" s="18" t="n"/>
-      <c r="I492" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I492" s="13" t="n"/>
       <c r="J492" s="13" t="n"/>
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25960,7 +26144,7 @@
       </c>
       <c r="B493" s="18" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C493" s="18" t="inlineStr">
@@ -25970,13 +26154,13 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
+          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -25985,16 +26169,12 @@
         </is>
       </c>
       <c r="H493" s="18" t="n"/>
-      <c r="I493" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I493" s="13" t="n"/>
       <c r="J493" s="13" t="n"/>
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26004,17 +26184,46 @@
       <c r="Q493" s="20" t="n"/>
     </row>
     <row r="494">
-      <c r="A494" s="18" t="n"/>
-      <c r="B494" s="18" t="n"/>
-      <c r="C494" s="18" t="n"/>
-      <c r="D494" s="18" t="n"/>
+      <c r="A494" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B494" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C494" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D494" s="18" t="inlineStr">
+        <is>
+          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
+        </is>
+      </c>
       <c r="E494" s="18" t="n"/>
-      <c r="F494" s="18" t="n"/>
+      <c r="F494" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H494" s="18" t="n"/>
       <c r="I494" s="13" t="n"/>
       <c r="J494" s="13" t="n"/>
       <c r="K494" s="19" t="n"/>
-      <c r="L494" s="19" t="n"/>
+      <c r="L494" s="19" t="inlineStr">
+        <is>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+        </is>
+      </c>
       <c r="M494" s="20" t="n"/>
       <c r="N494" s="20" t="n"/>
       <c r="O494" s="20" t="n"/>
@@ -26022,17 +26231,46 @@
       <c r="Q494" s="20" t="n"/>
     </row>
     <row r="495">
-      <c r="A495" s="18" t="n"/>
-      <c r="B495" s="18" t="n"/>
-      <c r="C495" s="18" t="n"/>
-      <c r="D495" s="18" t="n"/>
+      <c r="A495" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B495" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C495" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D495" s="18" t="inlineStr">
+        <is>
+          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+        </is>
+      </c>
       <c r="E495" s="18" t="n"/>
-      <c r="F495" s="18" t="n"/>
+      <c r="F495" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H495" s="18" t="n"/>
       <c r="I495" s="13" t="n"/>
       <c r="J495" s="13" t="n"/>
       <c r="K495" s="19" t="n"/>
-      <c r="L495" s="19" t="n"/>
+      <c r="L495" s="19" t="inlineStr">
+        <is>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+        </is>
+      </c>
       <c r="M495" s="20" t="n"/>
       <c r="N495" s="20" t="n"/>
       <c r="O495" s="20" t="n"/>
@@ -26040,17 +26278,46 @@
       <c r="Q495" s="20" t="n"/>
     </row>
     <row r="496">
-      <c r="A496" s="18" t="n"/>
-      <c r="B496" s="18" t="n"/>
-      <c r="C496" s="18" t="n"/>
-      <c r="D496" s="18" t="n"/>
+      <c r="A496" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B496" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C496" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D496" s="18" t="inlineStr">
+        <is>
+          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+        </is>
+      </c>
       <c r="E496" s="18" t="n"/>
-      <c r="F496" s="18" t="n"/>
+      <c r="F496" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H496" s="18" t="n"/>
       <c r="I496" s="13" t="n"/>
       <c r="J496" s="13" t="n"/>
       <c r="K496" s="19" t="n"/>
-      <c r="L496" s="19" t="n"/>
+      <c r="L496" s="19" t="inlineStr">
+        <is>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+        </is>
+      </c>
       <c r="M496" s="20" t="n"/>
       <c r="N496" s="20" t="n"/>
       <c r="O496" s="20" t="n"/>
@@ -26058,17 +26325,46 @@
       <c r="Q496" s="20" t="n"/>
     </row>
     <row r="497">
-      <c r="A497" s="18" t="n"/>
-      <c r="B497" s="18" t="n"/>
-      <c r="C497" s="18" t="n"/>
-      <c r="D497" s="18" t="n"/>
+      <c r="A497" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B497" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C497" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D497" s="18" t="inlineStr">
+        <is>
+          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
+        </is>
+      </c>
       <c r="E497" s="18" t="n"/>
-      <c r="F497" s="18" t="n"/>
+      <c r="F497" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H497" s="18" t="n"/>
       <c r="I497" s="13" t="n"/>
       <c r="J497" s="13" t="n"/>
       <c r="K497" s="19" t="n"/>
-      <c r="L497" s="19" t="n"/>
+      <c r="L497" s="19" t="inlineStr">
+        <is>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+        </is>
+      </c>
       <c r="M497" s="20" t="n"/>
       <c r="N497" s="20" t="n"/>
       <c r="O497" s="20" t="n"/>
@@ -26076,17 +26372,46 @@
       <c r="Q497" s="20" t="n"/>
     </row>
     <row r="498">
-      <c r="A498" s="18" t="n"/>
-      <c r="B498" s="18" t="n"/>
-      <c r="C498" s="18" t="n"/>
-      <c r="D498" s="18" t="n"/>
+      <c r="A498" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B498" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C498" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D498" s="18" t="inlineStr">
+        <is>
+          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
+        </is>
+      </c>
       <c r="E498" s="18" t="n"/>
-      <c r="F498" s="18" t="n"/>
+      <c r="F498" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H498" s="18" t="n"/>
       <c r="I498" s="13" t="n"/>
       <c r="J498" s="13" t="n"/>
       <c r="K498" s="19" t="n"/>
-      <c r="L498" s="19" t="n"/>
+      <c r="L498" s="19" t="inlineStr">
+        <is>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+        </is>
+      </c>
       <c r="M498" s="20" t="n"/>
       <c r="N498" s="20" t="n"/>
       <c r="O498" s="20" t="n"/>
@@ -26094,17 +26419,46 @@
       <c r="Q498" s="20" t="n"/>
     </row>
     <row r="499">
-      <c r="A499" s="18" t="n"/>
-      <c r="B499" s="18" t="n"/>
-      <c r="C499" s="18" t="n"/>
-      <c r="D499" s="18" t="n"/>
+      <c r="A499" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B499" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C499" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D499" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
+        </is>
+      </c>
       <c r="E499" s="18" t="n"/>
-      <c r="F499" s="18" t="n"/>
+      <c r="F499" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H499" s="18" t="n"/>
       <c r="I499" s="13" t="n"/>
       <c r="J499" s="13" t="n"/>
       <c r="K499" s="19" t="n"/>
-      <c r="L499" s="19" t="n"/>
+      <c r="L499" s="19" t="inlineStr">
+        <is>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+        </is>
+      </c>
       <c r="M499" s="20" t="n"/>
       <c r="N499" s="20" t="n"/>
       <c r="O499" s="20" t="n"/>
@@ -26112,17 +26466,46 @@
       <c r="Q499" s="20" t="n"/>
     </row>
     <row r="500">
-      <c r="A500" s="18" t="n"/>
-      <c r="B500" s="18" t="n"/>
-      <c r="C500" s="18" t="n"/>
-      <c r="D500" s="18" t="n"/>
+      <c r="A500" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B500" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C500" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D500" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+        </is>
+      </c>
       <c r="E500" s="18" t="n"/>
-      <c r="F500" s="18" t="n"/>
+      <c r="F500" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H500" s="18" t="n"/>
       <c r="I500" s="13" t="n"/>
       <c r="J500" s="13" t="n"/>
       <c r="K500" s="19" t="n"/>
-      <c r="L500" s="19" t="n"/>
+      <c r="L500" s="19" t="inlineStr">
+        <is>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+        </is>
+      </c>
       <c r="M500" s="20" t="n"/>
       <c r="N500" s="20" t="n"/>
       <c r="O500" s="20" t="n"/>
@@ -26130,17 +26513,46 @@
       <c r="Q500" s="20" t="n"/>
     </row>
     <row r="501">
-      <c r="A501" s="18" t="n"/>
-      <c r="B501" s="18" t="n"/>
-      <c r="C501" s="18" t="n"/>
-      <c r="D501" s="18" t="n"/>
+      <c r="A501" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B501" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C501" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D501" s="18" t="inlineStr">
+        <is>
+          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+        </is>
+      </c>
       <c r="E501" s="18" t="n"/>
-      <c r="F501" s="18" t="n"/>
+      <c r="F501" s="18" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H501" s="18" t="n"/>
       <c r="I501" s="13" t="n"/>
       <c r="J501" s="13" t="n"/>
       <c r="K501" s="19" t="n"/>
-      <c r="L501" s="19" t="n"/>
+      <c r="L501" s="19" t="inlineStr">
+        <is>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+        </is>
+      </c>
       <c r="M501" s="20" t="n"/>
       <c r="N501" s="20" t="n"/>
       <c r="O501" s="20" t="n"/>
@@ -26148,17 +26560,46 @@
       <c r="Q501" s="20" t="n"/>
     </row>
     <row r="502">
-      <c r="A502" s="18" t="n"/>
-      <c r="B502" s="18" t="n"/>
-      <c r="C502" s="18" t="n"/>
-      <c r="D502" s="18" t="n"/>
+      <c r="A502" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B502" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C502" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D502" s="18" t="inlineStr">
+        <is>
+          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
+        </is>
+      </c>
       <c r="E502" s="18" t="n"/>
-      <c r="F502" s="18" t="n"/>
+      <c r="F502" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H502" s="18" t="n"/>
       <c r="I502" s="13" t="n"/>
       <c r="J502" s="13" t="n"/>
       <c r="K502" s="19" t="n"/>
-      <c r="L502" s="19" t="n"/>
+      <c r="L502" s="19" t="inlineStr">
+        <is>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+        </is>
+      </c>
       <c r="M502" s="20" t="n"/>
       <c r="N502" s="20" t="n"/>
       <c r="O502" s="20" t="n"/>
@@ -26166,17 +26607,46 @@
       <c r="Q502" s="20" t="n"/>
     </row>
     <row r="503">
-      <c r="A503" s="18" t="n"/>
-      <c r="B503" s="18" t="n"/>
-      <c r="C503" s="18" t="n"/>
-      <c r="D503" s="18" t="n"/>
+      <c r="A503" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B503" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C503" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D503" s="18" t="inlineStr">
+        <is>
+          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
+        </is>
+      </c>
       <c r="E503" s="18" t="n"/>
-      <c r="F503" s="18" t="n"/>
+      <c r="F503" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H503" s="18" t="n"/>
       <c r="I503" s="13" t="n"/>
       <c r="J503" s="13" t="n"/>
       <c r="K503" s="19" t="n"/>
-      <c r="L503" s="19" t="n"/>
+      <c r="L503" s="19" t="inlineStr">
+        <is>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+        </is>
+      </c>
       <c r="M503" s="20" t="n"/>
       <c r="N503" s="20" t="n"/>
       <c r="O503" s="20" t="n"/>
@@ -26184,17 +26654,46 @@
       <c r="Q503" s="20" t="n"/>
     </row>
     <row r="504">
-      <c r="A504" s="18" t="n"/>
-      <c r="B504" s="18" t="n"/>
-      <c r="C504" s="18" t="n"/>
-      <c r="D504" s="18" t="n"/>
+      <c r="A504" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B504" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C504" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D504" s="18" t="inlineStr">
+        <is>
+          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
+        </is>
+      </c>
       <c r="E504" s="18" t="n"/>
-      <c r="F504" s="18" t="n"/>
+      <c r="F504" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H504" s="18" t="n"/>
       <c r="I504" s="13" t="n"/>
       <c r="J504" s="13" t="n"/>
       <c r="K504" s="19" t="n"/>
-      <c r="L504" s="19" t="n"/>
+      <c r="L504" s="19" t="inlineStr">
+        <is>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+        </is>
+      </c>
       <c r="M504" s="20" t="n"/>
       <c r="N504" s="20" t="n"/>
       <c r="O504" s="20" t="n"/>
@@ -26202,17 +26701,46 @@
       <c r="Q504" s="20" t="n"/>
     </row>
     <row r="505">
-      <c r="A505" s="18" t="n"/>
-      <c r="B505" s="18" t="n"/>
-      <c r="C505" s="18" t="n"/>
-      <c r="D505" s="18" t="n"/>
+      <c r="A505" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B505" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C505" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D505" s="18" t="inlineStr">
+        <is>
+          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+        </is>
+      </c>
       <c r="E505" s="18" t="n"/>
-      <c r="F505" s="18" t="n"/>
+      <c r="F505" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H505" s="18" t="n"/>
       <c r="I505" s="13" t="n"/>
       <c r="J505" s="13" t="n"/>
       <c r="K505" s="19" t="n"/>
-      <c r="L505" s="19" t="n"/>
+      <c r="L505" s="19" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M505" s="20" t="n"/>
       <c r="N505" s="20" t="n"/>
       <c r="O505" s="20" t="n"/>
@@ -26220,17 +26748,46 @@
       <c r="Q505" s="20" t="n"/>
     </row>
     <row r="506">
-      <c r="A506" s="18" t="n"/>
-      <c r="B506" s="18" t="n"/>
-      <c r="C506" s="18" t="n"/>
-      <c r="D506" s="18" t="n"/>
+      <c r="A506" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B506" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C506" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D506" s="18" t="inlineStr">
+        <is>
+          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+        </is>
+      </c>
       <c r="E506" s="18" t="n"/>
-      <c r="F506" s="18" t="n"/>
+      <c r="F506" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H506" s="18" t="n"/>
       <c r="I506" s="13" t="n"/>
       <c r="J506" s="13" t="n"/>
       <c r="K506" s="19" t="n"/>
-      <c r="L506" s="19" t="n"/>
+      <c r="L506" s="19" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M506" s="20" t="n"/>
       <c r="N506" s="20" t="n"/>
       <c r="O506" s="20" t="n"/>
@@ -26238,17 +26795,46 @@
       <c r="Q506" s="20" t="n"/>
     </row>
     <row r="507">
-      <c r="A507" s="18" t="n"/>
-      <c r="B507" s="18" t="n"/>
-      <c r="C507" s="18" t="n"/>
-      <c r="D507" s="18" t="n"/>
+      <c r="A507" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B507" s="18" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="C507" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D507" s="18" t="inlineStr">
+        <is>
+          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
+        </is>
+      </c>
       <c r="E507" s="18" t="n"/>
-      <c r="F507" s="18" t="n"/>
+      <c r="F507" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H507" s="18" t="n"/>
       <c r="I507" s="13" t="n"/>
       <c r="J507" s="13" t="n"/>
       <c r="K507" s="19" t="n"/>
-      <c r="L507" s="19" t="n"/>
+      <c r="L507" s="19" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M507" s="20" t="n"/>
       <c r="N507" s="20" t="n"/>
       <c r="O507" s="20" t="n"/>
@@ -26256,17 +26842,54 @@
       <c r="Q507" s="20" t="n"/>
     </row>
     <row r="508">
-      <c r="A508" s="18" t="n"/>
-      <c r="B508" s="18" t="n"/>
-      <c r="C508" s="18" t="n"/>
-      <c r="D508" s="18" t="n"/>
+      <c r="A508" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B508" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C508" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D508" s="18" t="inlineStr">
+        <is>
+          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
+        </is>
+      </c>
       <c r="E508" s="18" t="n"/>
-      <c r="F508" s="18" t="n"/>
+      <c r="F508" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H508" s="18" t="n"/>
-      <c r="I508" s="13" t="n"/>
-      <c r="J508" s="13" t="n"/>
+      <c r="I508" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J508" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K508" s="19" t="n"/>
-      <c r="L508" s="19" t="n"/>
+      <c r="L508" s="19" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M508" s="20" t="n"/>
       <c r="N508" s="20" t="n"/>
       <c r="O508" s="20" t="n"/>
@@ -26274,17 +26897,54 @@
       <c r="Q508" s="20" t="n"/>
     </row>
     <row r="509">
-      <c r="A509" s="18" t="n"/>
-      <c r="B509" s="18" t="n"/>
-      <c r="C509" s="18" t="n"/>
-      <c r="D509" s="18" t="n"/>
+      <c r="A509" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B509" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C509" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D509" s="18" t="inlineStr">
+        <is>
+          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
+        </is>
+      </c>
       <c r="E509" s="18" t="n"/>
-      <c r="F509" s="18" t="n"/>
+      <c r="F509" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H509" s="18" t="n"/>
-      <c r="I509" s="13" t="n"/>
-      <c r="J509" s="13" t="n"/>
+      <c r="I509" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J509" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K509" s="19" t="n"/>
-      <c r="L509" s="19" t="n"/>
+      <c r="L509" s="19" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M509" s="20" t="n"/>
       <c r="N509" s="20" t="n"/>
       <c r="O509" s="20" t="n"/>
@@ -26292,17 +26952,46 @@
       <c r="Q509" s="20" t="n"/>
     </row>
     <row r="510">
-      <c r="A510" s="18" t="n"/>
-      <c r="B510" s="18" t="n"/>
-      <c r="C510" s="18" t="n"/>
-      <c r="D510" s="18" t="n"/>
+      <c r="A510" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B510" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C510" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D510" s="18" t="inlineStr">
+        <is>
+          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
+        </is>
+      </c>
       <c r="E510" s="18" t="n"/>
-      <c r="F510" s="18" t="n"/>
+      <c r="F510" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H510" s="18" t="n"/>
       <c r="I510" s="13" t="n"/>
       <c r="J510" s="13" t="n"/>
       <c r="K510" s="19" t="n"/>
-      <c r="L510" s="19" t="n"/>
+      <c r="L510" s="19" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M510" s="20" t="n"/>
       <c r="N510" s="20" t="n"/>
       <c r="O510" s="20" t="n"/>
@@ -26310,17 +26999,46 @@
       <c r="Q510" s="20" t="n"/>
     </row>
     <row r="511">
-      <c r="A511" s="18" t="n"/>
-      <c r="B511" s="18" t="n"/>
-      <c r="C511" s="18" t="n"/>
-      <c r="D511" s="18" t="n"/>
+      <c r="A511" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B511" s="18" t="inlineStr">
+        <is>
+          <t>パフォーマンス</t>
+        </is>
+      </c>
+      <c r="C511" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D511" s="18" t="inlineStr">
+        <is>
+          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
+        </is>
+      </c>
       <c r="E511" s="18" t="n"/>
-      <c r="F511" s="18" t="n"/>
+      <c r="F511" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H511" s="18" t="n"/>
       <c r="I511" s="13" t="n"/>
       <c r="J511" s="13" t="n"/>
       <c r="K511" s="19" t="n"/>
-      <c r="L511" s="19" t="n"/>
+      <c r="L511" s="19" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M511" s="20" t="n"/>
       <c r="N511" s="20" t="n"/>
       <c r="O511" s="20" t="n"/>
@@ -26328,17 +27046,46 @@
       <c r="Q511" s="20" t="n"/>
     </row>
     <row r="512">
-      <c r="A512" s="18" t="n"/>
-      <c r="B512" s="18" t="n"/>
-      <c r="C512" s="18" t="n"/>
-      <c r="D512" s="18" t="n"/>
+      <c r="A512" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B512" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C512" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D512" s="18" t="inlineStr">
+        <is>
+          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
+        </is>
+      </c>
       <c r="E512" s="18" t="n"/>
-      <c r="F512" s="18" t="n"/>
+      <c r="F512" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H512" s="18" t="n"/>
       <c r="I512" s="13" t="n"/>
       <c r="J512" s="13" t="n"/>
       <c r="K512" s="19" t="n"/>
-      <c r="L512" s="19" t="n"/>
+      <c r="L512" s="19" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M512" s="20" t="n"/>
       <c r="N512" s="20" t="n"/>
       <c r="O512" s="20" t="n"/>
@@ -26346,17 +27093,50 @@
       <c r="Q512" s="20" t="n"/>
     </row>
     <row r="513">
-      <c r="A513" s="18" t="n"/>
-      <c r="B513" s="18" t="n"/>
-      <c r="C513" s="18" t="n"/>
-      <c r="D513" s="18" t="n"/>
+      <c r="A513" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B513" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C513" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D513" s="18" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
+        </is>
+      </c>
       <c r="E513" s="18" t="n"/>
-      <c r="F513" s="18" t="n"/>
+      <c r="F513" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H513" s="18" t="n"/>
-      <c r="I513" s="13" t="n"/>
+      <c r="I513" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J513" s="13" t="n"/>
       <c r="K513" s="19" t="n"/>
-      <c r="L513" s="19" t="n"/>
+      <c r="L513" s="19" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M513" s="20" t="n"/>
       <c r="N513" s="20" t="n"/>
       <c r="O513" s="20" t="n"/>
@@ -26364,17 +27144,50 @@
       <c r="Q513" s="20" t="n"/>
     </row>
     <row r="514">
-      <c r="A514" s="18" t="n"/>
-      <c r="B514" s="18" t="n"/>
-      <c r="C514" s="18" t="n"/>
-      <c r="D514" s="18" t="n"/>
+      <c r="A514" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B514" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C514" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D514" s="18" t="inlineStr">
+        <is>
+          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
+        </is>
+      </c>
       <c r="E514" s="18" t="n"/>
-      <c r="F514" s="18" t="n"/>
+      <c r="F514" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H514" s="18" t="n"/>
-      <c r="I514" s="13" t="n"/>
+      <c r="I514" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J514" s="13" t="n"/>
       <c r="K514" s="19" t="n"/>
-      <c r="L514" s="19" t="n"/>
+      <c r="L514" s="19" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M514" s="20" t="n"/>
       <c r="N514" s="20" t="n"/>
       <c r="O514" s="20" t="n"/>
@@ -26382,17 +27195,50 @@
       <c r="Q514" s="20" t="n"/>
     </row>
     <row r="515">
-      <c r="A515" s="18" t="n"/>
-      <c r="B515" s="18" t="n"/>
-      <c r="C515" s="18" t="n"/>
-      <c r="D515" s="18" t="n"/>
+      <c r="A515" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B515" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C515" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D515" s="18" t="inlineStr">
+        <is>
+          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
+        </is>
+      </c>
       <c r="E515" s="18" t="n"/>
-      <c r="F515" s="18" t="n"/>
+      <c r="F515" s="18" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H515" s="18" t="n"/>
-      <c r="I515" s="13" t="n"/>
+      <c r="I515" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J515" s="13" t="n"/>
       <c r="K515" s="19" t="n"/>
-      <c r="L515" s="19" t="n"/>
+      <c r="L515" s="19" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M515" s="20" t="n"/>
       <c r="N515" s="20" t="n"/>
       <c r="O515" s="20" t="n"/>
@@ -26400,17 +27246,50 @@
       <c r="Q515" s="20" t="n"/>
     </row>
     <row r="516">
-      <c r="A516" s="18" t="n"/>
-      <c r="B516" s="18" t="n"/>
-      <c r="C516" s="18" t="n"/>
-      <c r="D516" s="18" t="n"/>
+      <c r="A516" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B516" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C516" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D516" s="18" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
+        </is>
+      </c>
       <c r="E516" s="18" t="n"/>
-      <c r="F516" s="18" t="n"/>
+      <c r="F516" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H516" s="18" t="n"/>
-      <c r="I516" s="13" t="n"/>
+      <c r="I516" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J516" s="13" t="n"/>
       <c r="K516" s="19" t="n"/>
-      <c r="L516" s="19" t="n"/>
+      <c r="L516" s="19" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M516" s="20" t="n"/>
       <c r="N516" s="20" t="n"/>
       <c r="O516" s="20" t="n"/>
@@ -26418,17 +27297,50 @@
       <c r="Q516" s="20" t="n"/>
     </row>
     <row r="517">
-      <c r="A517" s="18" t="n"/>
-      <c r="B517" s="18" t="n"/>
-      <c r="C517" s="18" t="n"/>
-      <c r="D517" s="18" t="n"/>
+      <c r="A517" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B517" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C517" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D517" s="18" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
+        </is>
+      </c>
       <c r="E517" s="18" t="n"/>
-      <c r="F517" s="18" t="n"/>
+      <c r="F517" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H517" s="18" t="n"/>
-      <c r="I517" s="13" t="n"/>
+      <c r="I517" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J517" s="13" t="n"/>
       <c r="K517" s="19" t="n"/>
-      <c r="L517" s="19" t="n"/>
+      <c r="L517" s="19" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M517" s="20" t="n"/>
       <c r="N517" s="20" t="n"/>
       <c r="O517" s="20" t="n"/>
@@ -26436,17 +27348,50 @@
       <c r="Q517" s="20" t="n"/>
     </row>
     <row r="518">
-      <c r="A518" s="18" t="n"/>
-      <c r="B518" s="18" t="n"/>
-      <c r="C518" s="18" t="n"/>
-      <c r="D518" s="18" t="n"/>
+      <c r="A518" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B518" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C518" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D518" s="18" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
+        </is>
+      </c>
       <c r="E518" s="18" t="n"/>
-      <c r="F518" s="18" t="n"/>
+      <c r="F518" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H518" s="18" t="n"/>
-      <c r="I518" s="13" t="n"/>
+      <c r="I518" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J518" s="13" t="n"/>
       <c r="K518" s="19" t="n"/>
-      <c r="L518" s="19" t="n"/>
+      <c r="L518" s="19" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M518" s="20" t="n"/>
       <c r="N518" s="20" t="n"/>
       <c r="O518" s="20" t="n"/>
@@ -26454,17 +27399,50 @@
       <c r="Q518" s="20" t="n"/>
     </row>
     <row r="519">
-      <c r="A519" s="18" t="n"/>
-      <c r="B519" s="18" t="n"/>
-      <c r="C519" s="18" t="n"/>
-      <c r="D519" s="18" t="n"/>
+      <c r="A519" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B519" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C519" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D519" s="18" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
+        </is>
+      </c>
       <c r="E519" s="18" t="n"/>
-      <c r="F519" s="18" t="n"/>
+      <c r="F519" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H519" s="18" t="n"/>
-      <c r="I519" s="13" t="n"/>
+      <c r="I519" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J519" s="13" t="n"/>
       <c r="K519" s="19" t="n"/>
-      <c r="L519" s="19" t="n"/>
+      <c r="L519" s="19" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M519" s="20" t="n"/>
       <c r="N519" s="20" t="n"/>
       <c r="O519" s="20" t="n"/>
@@ -26472,17 +27450,50 @@
       <c r="Q519" s="20" t="n"/>
     </row>
     <row r="520">
-      <c r="A520" s="18" t="n"/>
-      <c r="B520" s="18" t="n"/>
-      <c r="C520" s="18" t="n"/>
-      <c r="D520" s="18" t="n"/>
+      <c r="A520" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B520" s="18" t="inlineStr">
+        <is>
+          <t>確実</t>
+        </is>
+      </c>
+      <c r="C520" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D520" s="18" t="inlineStr">
+        <is>
+          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
+        </is>
+      </c>
       <c r="E520" s="18" t="n"/>
-      <c r="F520" s="18" t="n"/>
+      <c r="F520" s="18" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="H520" s="18" t="n"/>
-      <c r="I520" s="13" t="n"/>
+      <c r="I520" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J520" s="13" t="n"/>
       <c r="K520" s="19" t="n"/>
-      <c r="L520" s="19" t="n"/>
+      <c r="L520" s="19" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M520" s="20" t="n"/>
       <c r="N520" s="20" t="n"/>
       <c r="O520" s="20" t="n"/>
@@ -38964,7 +39975,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G494" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G521" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39346,17 +40357,44 @@
     <hyperlink ref="I386" r:id="rId375"/>
     <hyperlink ref="I387" r:id="rId376"/>
     <hyperlink ref="I388" r:id="rId377"/>
-    <hyperlink ref="I399" r:id="rId378"/>
-    <hyperlink ref="I481" r:id="rId379"/>
-    <hyperlink ref="I482" r:id="rId380"/>
-    <hyperlink ref="I486" r:id="rId381"/>
-    <hyperlink ref="I487" r:id="rId382"/>
-    <hyperlink ref="I488" r:id="rId383"/>
-    <hyperlink ref="I489" r:id="rId384"/>
-    <hyperlink ref="I490" r:id="rId385"/>
-    <hyperlink ref="I491" r:id="rId386"/>
-    <hyperlink ref="I492" r:id="rId387"/>
-    <hyperlink ref="I493" r:id="rId388"/>
+    <hyperlink ref="I389" r:id="rId378"/>
+    <hyperlink ref="I390" r:id="rId379"/>
+    <hyperlink ref="I391" r:id="rId380"/>
+    <hyperlink ref="I392" r:id="rId381"/>
+    <hyperlink ref="I393" r:id="rId382"/>
+    <hyperlink ref="I394" r:id="rId383"/>
+    <hyperlink ref="I395" r:id="rId384"/>
+    <hyperlink ref="I396" r:id="rId385"/>
+    <hyperlink ref="I397" r:id="rId386"/>
+    <hyperlink ref="I398" r:id="rId387"/>
+    <hyperlink ref="I399" r:id="rId388"/>
+    <hyperlink ref="I400" r:id="rId389"/>
+    <hyperlink ref="I401" r:id="rId390"/>
+    <hyperlink ref="I402" r:id="rId391"/>
+    <hyperlink ref="I403" r:id="rId392"/>
+    <hyperlink ref="I404" r:id="rId393"/>
+    <hyperlink ref="I405" r:id="rId394"/>
+    <hyperlink ref="I406" r:id="rId395"/>
+    <hyperlink ref="I407" r:id="rId396"/>
+    <hyperlink ref="I408" r:id="rId397"/>
+    <hyperlink ref="I409" r:id="rId398"/>
+    <hyperlink ref="I410" r:id="rId399"/>
+    <hyperlink ref="I411" r:id="rId400"/>
+    <hyperlink ref="I412" r:id="rId401"/>
+    <hyperlink ref="I413" r:id="rId402"/>
+    <hyperlink ref="I414" r:id="rId403"/>
+    <hyperlink ref="I415" r:id="rId404"/>
+    <hyperlink ref="I426" r:id="rId405"/>
+    <hyperlink ref="I508" r:id="rId406"/>
+    <hyperlink ref="I509" r:id="rId407"/>
+    <hyperlink ref="I513" r:id="rId408"/>
+    <hyperlink ref="I514" r:id="rId409"/>
+    <hyperlink ref="I515" r:id="rId410"/>
+    <hyperlink ref="I516" r:id="rId411"/>
+    <hyperlink ref="I517" r:id="rId412"/>
+    <hyperlink ref="I518" r:id="rId413"/>
+    <hyperlink ref="I519" r:id="rId414"/>
+    <hyperlink ref="I520" r:id="rId415"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
